--- a/GATEWAY/S1#111MEDARCHIVER/MEDARCHIVER/MEDLIS_FSE2.0/1.0.0.0/accreditamento-checklist.xlsx
+++ b/GATEWAY/S1#111MEDARCHIVER/MEDARCHIVER/MEDLIS_FSE2.0/1.0.0.0/accreditamento-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzamparo\Documents\FSE 2.0\it-fse-accreditamento\GATEWAY\S1#111MEDARCHIVER\MEDARCHIVER\MEDLIS_FSE2.0\1.0.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C0C8B5-1E0C-4388-9ABA-B9CC529EA9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862235F5-97A6-4235-AC1F-24BCBE8127BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="911">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4593,9 +4593,6 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Il campo purpose_of_use non è valorizzato</t>
   </si>
   <si>
@@ -4772,6 +4769,18 @@
   </si>
   <si>
     <t>Per eseguire il test sono stati disattivati i controlli applicativi normalmente presenti (normalmente non è possibile scegliere un valore diverso da quelli validi)</t>
+  </si>
+  <si>
+    <t>Il software non prevede le procedure trasfusionali</t>
+  </si>
+  <si>
+    <t>2024-02-27T09:25:06Z</t>
+  </si>
+  <si>
+    <t>089beaf6e20e3a0c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.b1f28b9742bded28f65587ad4d07ad87f07177bd10c06c97d55f79236eeb3c57.d72c792ab3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -5190,28 +5199,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5238,6 +5225,28 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5534,7 +5543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -7699,10 +7710,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N198" sqref="N198"/>
+      <selection pane="bottomRight" activeCell="K69" sqref="K10:K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7740,12 +7751,12 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="45"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7763,14 +7774,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="45"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -7788,12 +7799,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="42" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -7812,12 +7823,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="45"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -7835,8 +7846,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -7954,2422 +7965,2396 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A10" s="51">
+      <c r="A10" s="39">
         <v>1</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="34">
         <v>45344</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="H10" s="35" t="s">
         <v>862</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="I10" s="35" t="s">
         <v>863</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="J10" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A11" s="39">
+        <v>2</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="34">
+        <v>45344</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="H11" s="35" t="s">
         <v>864</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="I11" s="35" t="s">
+        <v>865</v>
+      </c>
+      <c r="J11" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="50" t="s">
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="51">
-        <v>2</v>
-      </c>
-      <c r="B11" s="52" t="s">
+    <row r="12" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A12" s="39">
+        <v>3</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C12" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D12" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="34">
+        <v>45344</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>866</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>867</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A13" s="39">
+        <v>4</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="34">
+        <v>45344</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>868</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>869</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A14" s="39">
+        <v>5</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="34">
+        <v>45344</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>870</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>871</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A15" s="39">
+        <v>6</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A16" s="39">
+        <v>7</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A17" s="39">
+        <v>8</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A18" s="39">
+        <v>9</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A19" s="39">
+        <v>11</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A20" s="39">
+        <v>12</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A21" s="39">
+        <v>13</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A22" s="39">
+        <v>14</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A23" s="39">
+        <v>16</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A24" s="39">
+        <v>17</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A25" s="39">
+        <v>18</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A26" s="39">
+        <v>19</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A27" s="39">
+        <v>20</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A28" s="39">
+        <v>21</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A29" s="39">
+        <v>22</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A30" s="39">
+        <v>23</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A31" s="39">
+        <v>24</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="34"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A32" s="39">
+        <v>25</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A33" s="39">
+        <v>26</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="34"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A34" s="39">
+        <v>27</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A35" s="39">
+        <v>28</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="34">
+        <v>45344</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>852</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>854</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="M35" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="N35" s="33" t="s">
+        <v>855</v>
+      </c>
+      <c r="O35" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="P35" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A36" s="39">
+        <v>29</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="34"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A37" s="39">
+        <v>30</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="34"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A38" s="39">
+        <v>31</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="34"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A39" s="39">
+        <v>32</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="34"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A40" s="39">
+        <v>33</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="34"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A41" s="39">
+        <v>34</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="34"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A42" s="39">
+        <v>35</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="34"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A43" s="39">
+        <v>36</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="34">
+        <v>45344</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>857</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>858</v>
+      </c>
+      <c r="I43" s="35" t="s">
+        <v>854</v>
+      </c>
+      <c r="J43" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="M43" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="N43" s="33" t="s">
+        <v>859</v>
+      </c>
+      <c r="O43" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="P43" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A44" s="39">
+        <v>37</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F44" s="34"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A45" s="39">
+        <v>38</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" s="34"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A46" s="39">
+        <v>39</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46" s="34"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A47" s="39">
+        <v>40</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" s="34"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A48" s="39">
+        <v>41</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48" s="34"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A49" s="39">
+        <v>42</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" s="34"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A50" s="39">
+        <v>43</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="34"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="36"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A51" s="39">
+        <v>44</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F51" s="34"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="M51" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="P51" s="33" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="S51" s="37"/>
+      <c r="T51" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A52" s="39">
+        <v>45</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" s="34"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="S52" s="37"/>
+      <c r="T52" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A53" s="39">
+        <v>46</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F53" s="34"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="S53" s="37"/>
+      <c r="T53" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A54" s="39">
+        <v>47</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" s="34"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="S54" s="37"/>
+      <c r="T54" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A55" s="39">
+        <v>48</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" s="34"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="S55" s="37"/>
+      <c r="T55" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A56" s="39">
+        <v>49</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" s="34"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="S56" s="37"/>
+      <c r="T56" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A57" s="39">
+        <v>50</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" s="34"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="S57" s="37"/>
+      <c r="T57" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+      <c r="A58" s="39">
+        <v>51</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" s="34"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="S58" s="37"/>
+      <c r="T58" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A59" s="39">
         <v>52</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="B59" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F59" s="34">
+        <v>45344</v>
+      </c>
+      <c r="G59" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="H59" s="35" t="s">
+        <v>872</v>
+      </c>
+      <c r="I59" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="J59" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="M59" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="N59" s="33" t="s">
+        <v>874</v>
+      </c>
+      <c r="O59" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="P59" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A60" s="39">
         <v>53</v>
       </c>
-      <c r="F11" s="46">
+      <c r="B60" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F60" s="34">
         <v>45344</v>
       </c>
-      <c r="G11" s="47" t="s">
-        <v>862</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>865</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>866</v>
-      </c>
-      <c r="J11" s="45" t="s">
+      <c r="G60" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="H60" s="35" t="s">
+        <v>875</v>
+      </c>
+      <c r="I60" s="35" t="s">
+        <v>876</v>
+      </c>
+      <c r="J60" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="51">
-        <v>3</v>
-      </c>
-      <c r="B12" s="52" t="s">
+      <c r="K60" s="33"/>
+      <c r="L60" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="M60" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="N60" s="33" t="s">
+        <v>877</v>
+      </c>
+      <c r="O60" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="P60" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="37" t="s">
+        <v>905</v>
+      </c>
+      <c r="T60" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A61" s="39">
+        <v>54</v>
+      </c>
+      <c r="B61" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C61" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="53" t="s">
+      <c r="D61" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="F61" s="34">
+        <v>45344</v>
+      </c>
+      <c r="G61" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="H61" s="35" t="s">
+        <v>878</v>
+      </c>
+      <c r="I61" s="35" t="s">
+        <v>879</v>
+      </c>
+      <c r="J61" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="M61" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="N61" s="33" t="s">
+        <v>880</v>
+      </c>
+      <c r="O61" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="P61" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="37" t="s">
+        <v>906</v>
+      </c>
+      <c r="T61" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A62" s="39">
         <v>55</v>
       </c>
-      <c r="F12" s="46">
+      <c r="B62" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F62" s="34">
         <v>45344</v>
       </c>
-      <c r="G12" s="47" t="s">
-        <v>862</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>867</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>868</v>
-      </c>
-      <c r="J12" s="45" t="s">
+      <c r="G62" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="H62" s="35" t="s">
+        <v>881</v>
+      </c>
+      <c r="I62" s="35" t="s">
+        <v>882</v>
+      </c>
+      <c r="J62" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="51">
-        <v>4</v>
-      </c>
-      <c r="B13" s="52" t="s">
+      <c r="K62" s="33"/>
+      <c r="L62" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="M62" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="N62" s="33" t="s">
+        <v>883</v>
+      </c>
+      <c r="O62" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="P62" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="37" t="s">
+        <v>905</v>
+      </c>
+      <c r="T62" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A63" s="39">
+        <v>56</v>
+      </c>
+      <c r="B63" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C63" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="53" t="s">
+      <c r="D63" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E63" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="F63" s="34">
+        <v>45344</v>
+      </c>
+      <c r="G63" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="H63" s="35" t="s">
+        <v>884</v>
+      </c>
+      <c r="I63" s="35" t="s">
+        <v>885</v>
+      </c>
+      <c r="J63" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="M63" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="N63" s="33" t="s">
+        <v>886</v>
+      </c>
+      <c r="O63" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="P63" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="37" t="s">
+        <v>905</v>
+      </c>
+      <c r="T63" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A64" s="39">
         <v>57</v>
       </c>
-      <c r="F13" s="46">
+      <c r="B64" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F64" s="34">
         <v>45344</v>
       </c>
-      <c r="G13" s="47" t="s">
-        <v>862</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>869</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>870</v>
-      </c>
-      <c r="J13" s="45" t="s">
+      <c r="G64" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="H64" s="35" t="s">
+        <v>887</v>
+      </c>
+      <c r="I64" s="35" t="s">
+        <v>888</v>
+      </c>
+      <c r="J64" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A14" s="51">
-        <v>5</v>
-      </c>
-      <c r="B14" s="52" t="s">
+      <c r="K64" s="33"/>
+      <c r="L64" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="M64" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="N64" s="33" t="s">
+        <v>889</v>
+      </c>
+      <c r="O64" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="P64" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="37"/>
+      <c r="T64" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A65" s="39">
+        <v>58</v>
+      </c>
+      <c r="B65" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C65" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="53" t="s">
+      <c r="D65" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F65" s="34">
+        <v>45344</v>
+      </c>
+      <c r="G65" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="H65" s="35" t="s">
+        <v>890</v>
+      </c>
+      <c r="I65" s="35" t="s">
+        <v>891</v>
+      </c>
+      <c r="J65" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="M65" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="N65" s="33" t="s">
+        <v>892</v>
+      </c>
+      <c r="O65" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="P65" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="37" t="s">
+        <v>906</v>
+      </c>
+      <c r="T65" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A66" s="39">
         <v>59</v>
       </c>
-      <c r="F14" s="46">
+      <c r="B66" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F66" s="34">
         <v>45344</v>
       </c>
-      <c r="G14" s="47" t="s">
-        <v>862</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>871</v>
-      </c>
-      <c r="I14" s="47" t="s">
-        <v>872</v>
-      </c>
-      <c r="J14" s="45" t="s">
+      <c r="G66" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="H66" s="35" t="s">
+        <v>893</v>
+      </c>
+      <c r="I66" s="35" t="s">
+        <v>894</v>
+      </c>
+      <c r="J66" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A15" s="51">
-        <v>6</v>
-      </c>
-      <c r="B15" s="52" t="s">
+      <c r="K66" s="33"/>
+      <c r="L66" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="M66" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="N66" s="33" t="s">
+        <v>895</v>
+      </c>
+      <c r="O66" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="P66" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="37" t="s">
+        <v>905</v>
+      </c>
+      <c r="T66" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A67" s="39">
+        <v>60</v>
+      </c>
+      <c r="B67" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="52" t="s">
+      <c r="C67" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="E67" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="F67" s="34">
+        <v>45344</v>
+      </c>
+      <c r="G67" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="H67" s="35" t="s">
+        <v>896</v>
+      </c>
+      <c r="I67" s="35" t="s">
+        <v>897</v>
+      </c>
+      <c r="J67" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="M67" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="N67" s="33" t="s">
+        <v>898</v>
+      </c>
+      <c r="O67" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="P67" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="36"/>
+      <c r="S67" s="37" t="s">
+        <v>905</v>
+      </c>
+      <c r="T67" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A68" s="39">
         <v>61</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="B68" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="F68" s="34">
+        <v>45344</v>
+      </c>
+      <c r="G68" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="H68" s="35" t="s">
+        <v>899</v>
+      </c>
+      <c r="I68" s="35" t="s">
+        <v>900</v>
+      </c>
+      <c r="J68" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="M68" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="N68" s="33" t="s">
+        <v>901</v>
+      </c>
+      <c r="O68" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="P68" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="37" t="s">
+        <v>905</v>
+      </c>
+      <c r="T68" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A69" s="39">
         <v>62</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A16" s="51">
-        <v>7</v>
-      </c>
-      <c r="B16" s="52" t="s">
+      <c r="B69" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A17" s="51">
-        <v>8</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A18" s="51">
-        <v>9</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A19" s="51">
-        <v>11</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A20" s="51">
-        <v>12</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A21" s="51">
-        <v>13</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A22" s="51">
-        <v>14</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A23" s="51">
-        <v>16</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A24" s="51">
-        <v>17</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A25" s="51">
-        <v>18</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A26" s="51">
-        <v>19</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A27" s="51">
-        <v>20</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A28" s="51">
-        <v>21</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A29" s="51">
-        <v>22</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="46"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A30" s="51">
-        <v>23</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A31" s="51">
-        <v>24</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A32" s="51">
-        <v>25</v>
-      </c>
-      <c r="B32" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A33" s="51">
-        <v>26</v>
-      </c>
-      <c r="B33" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A34" s="51">
-        <v>27</v>
-      </c>
-      <c r="B34" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="46"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A35" s="51">
-        <v>28</v>
-      </c>
-      <c r="B35" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="52" t="s">
+      <c r="C69" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="46">
+      <c r="D69" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F69" s="34">
         <v>45344</v>
       </c>
-      <c r="G35" s="47" t="s">
-        <v>852</v>
-      </c>
-      <c r="H35" s="47" t="s">
-        <v>853</v>
-      </c>
-      <c r="I35" s="47" t="s">
-        <v>854</v>
-      </c>
-      <c r="J35" s="45" t="s">
+      <c r="G69" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="H69" s="35" t="s">
+        <v>902</v>
+      </c>
+      <c r="I69" s="35" t="s">
+        <v>903</v>
+      </c>
+      <c r="J69" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="K35" s="45" t="s">
-        <v>855</v>
-      </c>
-      <c r="L35" s="45" t="s">
+      <c r="K69" s="33"/>
+      <c r="L69" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="M35" s="45" t="s">
+      <c r="M69" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="N35" s="45" t="s">
+      <c r="N69" s="33" t="s">
+        <v>904</v>
+      </c>
+      <c r="O69" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="P69" s="33" t="s">
         <v>856</v>
       </c>
-      <c r="O35" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="P35" s="45" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A36" s="51">
-        <v>29</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A37" s="51">
-        <v>30</v>
-      </c>
-      <c r="B37" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="F37" s="46"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A38" s="51">
-        <v>31</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A39" s="51">
-        <v>32</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A40" s="51">
-        <v>33</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A41" s="51">
-        <v>34</v>
-      </c>
-      <c r="B41" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="E41" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="F41" s="46"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="49"/>
-      <c r="T41" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A42" s="51">
-        <v>35</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A43" s="51">
-        <v>36</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43" s="46">
-        <v>45344</v>
-      </c>
-      <c r="G43" s="47" t="s">
-        <v>858</v>
-      </c>
-      <c r="H43" s="47" t="s">
-        <v>859</v>
-      </c>
-      <c r="I43" s="47" t="s">
-        <v>854</v>
-      </c>
-      <c r="J43" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="K43" s="45" t="s">
-        <v>855</v>
-      </c>
-      <c r="L43" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="M43" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="N43" s="45" t="s">
-        <v>860</v>
-      </c>
-      <c r="O43" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="P43" s="45" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="49"/>
-      <c r="T43" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A44" s="51">
-        <v>37</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="F44" s="46"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="49"/>
-      <c r="T44" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A45" s="51">
-        <v>38</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="E45" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="F45" s="46"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="48"/>
-      <c r="S45" s="49"/>
-      <c r="T45" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A46" s="51">
-        <v>39</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="E46" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="F46" s="46"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="48"/>
-      <c r="S46" s="49"/>
-      <c r="T46" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A47" s="51">
-        <v>40</v>
-      </c>
-      <c r="B47" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="F47" s="46"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A48" s="51">
-        <v>41</v>
-      </c>
-      <c r="B48" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="F48" s="46"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="49"/>
-      <c r="T48" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A49" s="51">
-        <v>42</v>
-      </c>
-      <c r="B49" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="E49" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="F49" s="46"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="48"/>
-      <c r="S49" s="49"/>
-      <c r="T49" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A50" s="51">
-        <v>43</v>
-      </c>
-      <c r="B50" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="E50" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" s="46"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="48"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A51" s="51">
-        <v>44</v>
-      </c>
-      <c r="B51" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="E51" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="F51" s="46"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="M51" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="P51" s="45" t="s">
-        <v>861</v>
-      </c>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="S51" s="49"/>
-      <c r="T51" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A52" s="51">
-        <v>45</v>
-      </c>
-      <c r="B52" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="E52" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="F52" s="46"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="S52" s="49"/>
-      <c r="T52" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A53" s="51">
-        <v>46</v>
-      </c>
-      <c r="B53" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="E53" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="F53" s="46"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="S53" s="49"/>
-      <c r="T53" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A54" s="51">
-        <v>47</v>
-      </c>
-      <c r="B54" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="E54" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="F54" s="46"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="S54" s="49"/>
-      <c r="T54" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A55" s="51">
-        <v>48</v>
-      </c>
-      <c r="B55" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="E55" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="F55" s="46"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="45"/>
-      <c r="O55" s="45"/>
-      <c r="P55" s="45"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="S55" s="49"/>
-      <c r="T55" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A56" s="51">
-        <v>49</v>
-      </c>
-      <c r="B56" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E56" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="F56" s="46"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="45"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="45"/>
-      <c r="P56" s="45"/>
-      <c r="Q56" s="45"/>
-      <c r="R56" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="S56" s="49"/>
-      <c r="T56" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A57" s="51">
-        <v>50</v>
-      </c>
-      <c r="B57" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="E57" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="F57" s="46"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="45"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="45"/>
-      <c r="O57" s="45"/>
-      <c r="P57" s="45"/>
-      <c r="Q57" s="45"/>
-      <c r="R57" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="S57" s="49"/>
-      <c r="T57" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="14.25" hidden="1" customHeight="1">
-      <c r="A58" s="51">
-        <v>51</v>
-      </c>
-      <c r="B58" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="E58" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="F58" s="46"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="S58" s="49"/>
-      <c r="T58" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A59" s="51">
-        <v>52</v>
-      </c>
-      <c r="B59" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="E59" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="F59" s="46">
-        <v>45344</v>
-      </c>
-      <c r="G59" s="47" t="s">
-        <v>862</v>
-      </c>
-      <c r="H59" s="47" t="s">
-        <v>873</v>
-      </c>
-      <c r="I59" s="47" t="s">
-        <v>874</v>
-      </c>
-      <c r="J59" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="K59" s="45" t="s">
-        <v>855</v>
-      </c>
-      <c r="L59" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="M59" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="N59" s="45" t="s">
-        <v>875</v>
-      </c>
-      <c r="O59" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="P59" s="45" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q59" s="45"/>
-      <c r="R59" s="48"/>
-      <c r="S59" s="49"/>
-      <c r="T59" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A60" s="51">
-        <v>53</v>
-      </c>
-      <c r="B60" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="E60" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="F60" s="46">
-        <v>45344</v>
-      </c>
-      <c r="G60" s="47" t="s">
-        <v>862</v>
-      </c>
-      <c r="H60" s="47" t="s">
-        <v>876</v>
-      </c>
-      <c r="I60" s="47" t="s">
-        <v>877</v>
-      </c>
-      <c r="J60" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="K60" s="45" t="s">
-        <v>855</v>
-      </c>
-      <c r="L60" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="M60" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="N60" s="45" t="s">
-        <v>878</v>
-      </c>
-      <c r="O60" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="P60" s="45" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q60" s="45"/>
-      <c r="R60" s="48"/>
-      <c r="S60" s="49" t="s">
-        <v>906</v>
-      </c>
-      <c r="T60" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A61" s="51">
-        <v>54</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="E61" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="F61" s="46">
-        <v>45344</v>
-      </c>
-      <c r="G61" s="47" t="s">
-        <v>862</v>
-      </c>
-      <c r="H61" s="47" t="s">
-        <v>879</v>
-      </c>
-      <c r="I61" s="47" t="s">
-        <v>880</v>
-      </c>
-      <c r="J61" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="K61" s="45" t="s">
-        <v>855</v>
-      </c>
-      <c r="L61" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="M61" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="N61" s="45" t="s">
-        <v>881</v>
-      </c>
-      <c r="O61" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="P61" s="45" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q61" s="45"/>
-      <c r="R61" s="48"/>
-      <c r="S61" s="49" t="s">
-        <v>907</v>
-      </c>
-      <c r="T61" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A62" s="51">
-        <v>55</v>
-      </c>
-      <c r="B62" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C62" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="E62" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="F62" s="46">
-        <v>45344</v>
-      </c>
-      <c r="G62" s="47" t="s">
-        <v>862</v>
-      </c>
-      <c r="H62" s="47" t="s">
-        <v>882</v>
-      </c>
-      <c r="I62" s="47" t="s">
-        <v>883</v>
-      </c>
-      <c r="J62" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="K62" s="45" t="s">
-        <v>855</v>
-      </c>
-      <c r="L62" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="M62" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="N62" s="45" t="s">
-        <v>884</v>
-      </c>
-      <c r="O62" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="P62" s="45" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q62" s="45"/>
-      <c r="R62" s="48"/>
-      <c r="S62" s="49" t="s">
-        <v>906</v>
-      </c>
-      <c r="T62" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A63" s="51">
-        <v>56</v>
-      </c>
-      <c r="B63" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="E63" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="F63" s="46">
-        <v>45344</v>
-      </c>
-      <c r="G63" s="47" t="s">
-        <v>862</v>
-      </c>
-      <c r="H63" s="47" t="s">
-        <v>885</v>
-      </c>
-      <c r="I63" s="47" t="s">
-        <v>886</v>
-      </c>
-      <c r="J63" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="K63" s="45" t="s">
-        <v>855</v>
-      </c>
-      <c r="L63" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="M63" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="N63" s="45" t="s">
-        <v>887</v>
-      </c>
-      <c r="O63" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="P63" s="45" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q63" s="45"/>
-      <c r="R63" s="48"/>
-      <c r="S63" s="49" t="s">
-        <v>906</v>
-      </c>
-      <c r="T63" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A64" s="51">
-        <v>57</v>
-      </c>
-      <c r="B64" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="E64" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="F64" s="46">
-        <v>45344</v>
-      </c>
-      <c r="G64" s="47" t="s">
-        <v>862</v>
-      </c>
-      <c r="H64" s="47" t="s">
-        <v>888</v>
-      </c>
-      <c r="I64" s="47" t="s">
-        <v>889</v>
-      </c>
-      <c r="J64" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="K64" s="45" t="s">
-        <v>855</v>
-      </c>
-      <c r="L64" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="M64" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="N64" s="45" t="s">
-        <v>890</v>
-      </c>
-      <c r="O64" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="P64" s="45" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q64" s="45"/>
-      <c r="R64" s="48"/>
-      <c r="S64" s="49"/>
-      <c r="T64" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A65" s="51">
-        <v>58</v>
-      </c>
-      <c r="B65" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C65" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="E65" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="F65" s="46">
-        <v>45344</v>
-      </c>
-      <c r="G65" s="47" t="s">
-        <v>862</v>
-      </c>
-      <c r="H65" s="47" t="s">
-        <v>891</v>
-      </c>
-      <c r="I65" s="47" t="s">
-        <v>892</v>
-      </c>
-      <c r="J65" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="K65" s="45" t="s">
-        <v>855</v>
-      </c>
-      <c r="L65" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="M65" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="N65" s="45" t="s">
-        <v>893</v>
-      </c>
-      <c r="O65" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="P65" s="45" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q65" s="45"/>
-      <c r="R65" s="48"/>
-      <c r="S65" s="49" t="s">
-        <v>907</v>
-      </c>
-      <c r="T65" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A66" s="51">
-        <v>59</v>
-      </c>
-      <c r="B66" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="E66" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="F66" s="46">
-        <v>45344</v>
-      </c>
-      <c r="G66" s="47" t="s">
-        <v>862</v>
-      </c>
-      <c r="H66" s="47" t="s">
-        <v>894</v>
-      </c>
-      <c r="I66" s="47" t="s">
-        <v>895</v>
-      </c>
-      <c r="J66" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="K66" s="45" t="s">
-        <v>855</v>
-      </c>
-      <c r="L66" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="M66" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="N66" s="45" t="s">
-        <v>896</v>
-      </c>
-      <c r="O66" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="P66" s="45" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q66" s="45"/>
-      <c r="R66" s="48"/>
-      <c r="S66" s="49" t="s">
-        <v>906</v>
-      </c>
-      <c r="T66" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A67" s="51">
-        <v>60</v>
-      </c>
-      <c r="B67" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="E67" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="F67" s="46">
-        <v>45344</v>
-      </c>
-      <c r="G67" s="47" t="s">
-        <v>862</v>
-      </c>
-      <c r="H67" s="47" t="s">
-        <v>897</v>
-      </c>
-      <c r="I67" s="47" t="s">
-        <v>898</v>
-      </c>
-      <c r="J67" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="K67" s="45" t="s">
-        <v>855</v>
-      </c>
-      <c r="L67" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="M67" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="N67" s="45" t="s">
-        <v>899</v>
-      </c>
-      <c r="O67" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="P67" s="45" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q67" s="45"/>
-      <c r="R67" s="48"/>
-      <c r="S67" s="49" t="s">
-        <v>906</v>
-      </c>
-      <c r="T67" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A68" s="51">
-        <v>61</v>
-      </c>
-      <c r="B68" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="E68" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="F68" s="46">
-        <v>45344</v>
-      </c>
-      <c r="G68" s="47" t="s">
-        <v>862</v>
-      </c>
-      <c r="H68" s="47" t="s">
-        <v>900</v>
-      </c>
-      <c r="I68" s="47" t="s">
-        <v>901</v>
-      </c>
-      <c r="J68" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="K68" s="45" t="s">
-        <v>855</v>
-      </c>
-      <c r="L68" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="M68" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="N68" s="45" t="s">
-        <v>902</v>
-      </c>
-      <c r="O68" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="P68" s="45" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q68" s="45"/>
-      <c r="R68" s="48"/>
-      <c r="S68" s="49" t="s">
-        <v>906</v>
-      </c>
-      <c r="T68" s="50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A69" s="51">
-        <v>62</v>
-      </c>
-      <c r="B69" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="E69" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="F69" s="46">
-        <v>45344</v>
-      </c>
-      <c r="G69" s="47" t="s">
-        <v>862</v>
-      </c>
-      <c r="H69" s="47" t="s">
-        <v>903</v>
-      </c>
-      <c r="I69" s="47" t="s">
-        <v>904</v>
-      </c>
-      <c r="J69" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="K69" s="45" t="s">
-        <v>855</v>
-      </c>
-      <c r="L69" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="M69" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="N69" s="45" t="s">
+      <c r="Q69" s="33"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="37" t="s">
         <v>905</v>
       </c>
-      <c r="O69" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="P69" s="45" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q69" s="45"/>
-      <c r="R69" s="48"/>
-      <c r="S69" s="49" t="s">
-        <v>906</v>
-      </c>
-      <c r="T69" s="50" t="s">
+      <c r="T69" s="38" t="s">
         <v>107</v>
       </c>
     </row>
@@ -14748,7 +14733,9 @@
       <c r="J198" s="25" t="s">
         <v>851</v>
       </c>
-      <c r="K198" s="25"/>
+      <c r="K198" s="25" t="s">
+        <v>907</v>
+      </c>
       <c r="L198" s="25"/>
       <c r="M198" s="25"/>
       <c r="N198" s="25"/>
@@ -14757,9 +14744,7 @@
       <c r="Q198" s="25"/>
       <c r="R198" s="26"/>
       <c r="S198" s="27"/>
-      <c r="T198" s="28" t="s">
-        <v>51</v>
-      </c>
+      <c r="T198" s="28"/>
     </row>
     <row r="199" spans="1:20" ht="241.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A199" s="20">
@@ -20761,14 +20746,24 @@
       <c r="E375" s="22" t="s">
         <v>781</v>
       </c>
-      <c r="F375" s="23"/>
-      <c r="G375" s="24"/>
-      <c r="H375" s="24"/>
-      <c r="I375" s="24"/>
-      <c r="J375" s="25"/>
-      <c r="K375" s="25"/>
-      <c r="L375" s="25"/>
-      <c r="M375" s="25"/>
+      <c r="F375" s="34">
+        <v>45349</v>
+      </c>
+      <c r="G375" s="35" t="s">
+        <v>908</v>
+      </c>
+      <c r="H375" s="35" t="s">
+        <v>909</v>
+      </c>
+      <c r="I375" s="35" t="s">
+        <v>910</v>
+      </c>
+      <c r="J375" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="K375" s="33"/>
+      <c r="L375" s="33"/>
+      <c r="M375" s="33"/>
       <c r="N375" s="25"/>
       <c r="O375" s="25"/>
       <c r="P375" s="25"/>
@@ -21040,7 +21035,9 @@
       <c r="J383" s="25" t="s">
         <v>851</v>
       </c>
-      <c r="K383" s="25"/>
+      <c r="K383" s="25" t="s">
+        <v>907</v>
+      </c>
       <c r="L383" s="25"/>
       <c r="M383" s="25"/>
       <c r="N383" s="25"/>
@@ -21049,9 +21046,7 @@
       <c r="Q383" s="25"/>
       <c r="R383" s="26"/>
       <c r="S383" s="27"/>
-      <c r="T383" s="28" t="s">
-        <v>51</v>
-      </c>
+      <c r="T383" s="28"/>
     </row>
     <row r="384" spans="1:20" ht="14.25" customHeight="1">
       <c r="F384" s="12"/>

--- a/GATEWAY/S1#111MEDARCHIVER/MEDARCHIVER/MEDLIS_FSE2.0/1.0.0.0/accreditamento-checklist.xlsx
+++ b/GATEWAY/S1#111MEDARCHIVER/MEDARCHIVER/MEDLIS_FSE2.0/1.0.0.0/accreditamento-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzamparo\Documents\FSE 2.0\it-fse-accreditamento\GATEWAY\S1#111MEDARCHIVER\MEDARCHIVER\MEDLIS_FSE2.0\1.0.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7513FB37-CC86-4012-BD7A-C5F66F3C02C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05826B6-F138-4F8B-ACB6-3BF1ECE9ACC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="921">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4657,12 +4657,6 @@
 			],[W002 | Si consiglia di valorizzare l'elemento organizer[CLUSTER]/code],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ],[W003 | Si consiglia di utilizzare il sistema di codifica LOINC per la valorizzazione dell'elemento observation/code.--&gt; ]</t>
   </si>
   <si>
-    <t>Per eseguire il test sono stati disattivati i controlli applicativi normalmente presenti (normalmente non è possibile inviare la richiesta al LAB senza il dato)</t>
-  </si>
-  <si>
-    <t>Per eseguire il test sono stati disattivati i controlli applicativi normalmente presenti (normalmente non è possibile scegliere un valore diverso da quelli validi)</t>
-  </si>
-  <si>
     <t>Il software non prevede le procedure trasfusionali</t>
   </si>
   <si>
@@ -4787,6 +4781,36 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.190.4.4.cea194ef03cab47210ec084e2d9ea00be6eb381fded1c3c04262c23bc11088fc.8cbef01ce5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Per eseguire il test è stato volontariamente modificato il campo purpose_of_use, cosa non possibile da parte dell'utente finale.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per eseguire il test sono stati disattivati i controlli applicativi normalmente presenti (normalmente la lingua è preimpostata a livello utente e/o è possibile scegliere tra un set di valori validi) </t>
+  </si>
+  <si>
+    <t>Per eseguire il test sono stati disattivati i controlli applicativi normalmente presenti (i due valori non sono gestibili dall'utente)</t>
+  </si>
+  <si>
+    <t>Per eseguire il test sono stati disattivati i controlli applicativi normalmente presenti (un utente non può impostare liberamente un valore, ma sceglierlo tra un set di valori validi)</t>
+  </si>
+  <si>
+    <t>Per eseguire il test sono stati disattivati i controlli applicativi normalmente presenti (sono dati obbligatori di registrazione del paziente, per cui non è possibile arrivare alla refertazione senza questi dati)</t>
+  </si>
+  <si>
+    <t>Per eseguire il test è stato creato un referto di laboratorio senza la richiesta collegata, in modo da simulare il caso. In nessun caso è possibile refertare degli esami si laboratorio senza una richiesta collegata</t>
+  </si>
+  <si>
+    <t>Per eseguire il test sono stati appositamente configurati dei codici errati a livello di configurazione. All'utente refertante è disabilitato l'accesso a questa configurazione</t>
+  </si>
+  <si>
+    <t>Per eseguire il test sono stati disattivati i controlli applicativi normalmente presenti, sono configurazioni del campione obbligatorie, senza di queste il campione non potrebbe essere disponibile per la configurazione di un esame.</t>
+  </si>
+  <si>
+    <t>Per eseguire il test sono stati disattivati i controlli applicativi normalmente presenti, i dati sono obbligatori durante la configurazione, non sarebbe possibile procedere oltre.</t>
+  </si>
+  <si>
+    <t>Per eseguire il test è stato volontariamente modificato il campo action_id, cosa non possibile da parte dell'utente finale.</t>
   </si>
 </sst>
 </file>
@@ -7720,10 +7744,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E69" sqref="E69"/>
+      <selection pane="bottomRight" activeCell="S69" sqref="S69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7766,7 +7790,7 @@
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="48" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D2" s="49"/>
       <c r="F2" s="12"/>
@@ -7791,7 +7815,7 @@
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="43" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D3" s="42"/>
       <c r="F3" s="12"/>
@@ -7814,7 +7838,7 @@
       <c r="A4" s="52"/>
       <c r="B4" s="53"/>
       <c r="C4" s="43" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D4" s="42"/>
       <c r="E4" s="4"/>
@@ -7838,7 +7862,7 @@
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="43" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D5" s="42"/>
       <c r="F5" s="12"/>
@@ -7996,13 +8020,13 @@
         <v>45351</v>
       </c>
       <c r="G10" s="34" t="s">
+        <v>873</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>874</v>
+      </c>
+      <c r="I10" s="34" t="s">
         <v>875</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>876</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>877</v>
       </c>
       <c r="J10" s="33" t="s">
         <v>139</v>
@@ -8040,13 +8064,13 @@
         <v>45351</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J11" s="33" t="s">
         <v>139</v>
@@ -8084,13 +8108,13 @@
         <v>45351</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="J12" s="33" t="s">
         <v>139</v>
@@ -8128,13 +8152,13 @@
         <v>45351</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="J13" s="33" t="s">
         <v>139</v>
@@ -8172,13 +8196,13 @@
         <v>45351</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>139</v>
@@ -8925,7 +8949,9 @@
       </c>
       <c r="Q35" s="33"/>
       <c r="R35" s="36"/>
-      <c r="S35" s="37"/>
+      <c r="S35" s="37" t="s">
+        <v>911</v>
+      </c>
       <c r="T35" s="38" t="s">
         <v>104</v>
       </c>
@@ -9217,7 +9243,9 @@
       </c>
       <c r="Q43" s="33"/>
       <c r="R43" s="36"/>
-      <c r="S43" s="37"/>
+      <c r="S43" s="37" t="s">
+        <v>920</v>
+      </c>
       <c r="T43" s="38" t="s">
         <v>104</v>
       </c>
@@ -9778,13 +9806,13 @@
         <v>45351</v>
       </c>
       <c r="G59" s="35" t="s">
+        <v>888</v>
+      </c>
+      <c r="H59" s="35" t="s">
+        <v>889</v>
+      </c>
+      <c r="I59" s="35" t="s">
         <v>890</v>
-      </c>
-      <c r="H59" s="35" t="s">
-        <v>891</v>
-      </c>
-      <c r="I59" s="35" t="s">
-        <v>892</v>
       </c>
       <c r="J59" s="33" t="s">
         <v>139</v>
@@ -9807,7 +9835,9 @@
       </c>
       <c r="Q59" s="33"/>
       <c r="R59" s="36"/>
-      <c r="S59" s="37"/>
+      <c r="S59" s="37" t="s">
+        <v>912</v>
+      </c>
       <c r="T59" s="38" t="s">
         <v>104</v>
       </c>
@@ -9832,13 +9862,13 @@
         <v>45351</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H60" s="35" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I60" s="33" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="J60" s="33" t="s">
         <v>139</v>
@@ -9862,7 +9892,7 @@
       <c r="Q60" s="33"/>
       <c r="R60" s="36"/>
       <c r="S60" s="37" t="s">
-        <v>869</v>
+        <v>913</v>
       </c>
       <c r="T60" s="38" t="s">
         <v>104</v>
@@ -9888,13 +9918,13 @@
         <v>45351</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H61" s="35" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="I61" s="35" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="J61" s="33" t="s">
         <v>139</v>
@@ -9918,7 +9948,7 @@
       <c r="Q61" s="33"/>
       <c r="R61" s="36"/>
       <c r="S61" s="37" t="s">
-        <v>870</v>
+        <v>914</v>
       </c>
       <c r="T61" s="38" t="s">
         <v>104</v>
@@ -9944,13 +9974,13 @@
         <v>45351</v>
       </c>
       <c r="G62" s="35" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H62" s="35" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I62" s="33" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="J62" s="33" t="s">
         <v>139</v>
@@ -9974,7 +10004,7 @@
       <c r="Q62" s="33"/>
       <c r="R62" s="36"/>
       <c r="S62" s="37" t="s">
-        <v>869</v>
+        <v>915</v>
       </c>
       <c r="T62" s="38" t="s">
         <v>104</v>
@@ -10000,13 +10030,13 @@
         <v>45351</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H63" s="35" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I63" s="35" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="J63" s="33" t="s">
         <v>139</v>
@@ -10030,7 +10060,7 @@
       <c r="Q63" s="33"/>
       <c r="R63" s="36"/>
       <c r="S63" s="37" t="s">
-        <v>869</v>
+        <v>915</v>
       </c>
       <c r="T63" s="38" t="s">
         <v>104</v>
@@ -10056,13 +10086,13 @@
         <v>45351</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H64" s="35" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="I64" s="33" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="J64" s="33" t="s">
         <v>139</v>
@@ -10085,7 +10115,9 @@
       </c>
       <c r="Q64" s="33"/>
       <c r="R64" s="36"/>
-      <c r="S64" s="37"/>
+      <c r="S64" s="37" t="s">
+        <v>914</v>
+      </c>
       <c r="T64" s="38" t="s">
         <v>104</v>
       </c>
@@ -10110,13 +10142,13 @@
         <v>45351</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="I65" s="35" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J65" s="33" t="s">
         <v>139</v>
@@ -10140,7 +10172,7 @@
       <c r="Q65" s="33"/>
       <c r="R65" s="36"/>
       <c r="S65" s="37" t="s">
-        <v>870</v>
+        <v>914</v>
       </c>
       <c r="T65" s="38" t="s">
         <v>104</v>
@@ -10166,13 +10198,13 @@
         <v>45351</v>
       </c>
       <c r="G66" s="35" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H66" s="35" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I66" s="35" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="J66" s="33" t="s">
         <v>139</v>
@@ -10196,7 +10228,7 @@
       <c r="Q66" s="33"/>
       <c r="R66" s="36"/>
       <c r="S66" s="37" t="s">
-        <v>869</v>
+        <v>916</v>
       </c>
       <c r="T66" s="38" t="s">
         <v>104</v>
@@ -10222,13 +10254,13 @@
         <v>45351</v>
       </c>
       <c r="G67" s="35" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H67" s="35" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="I67" s="33" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="J67" s="33" t="s">
         <v>139</v>
@@ -10252,7 +10284,7 @@
       <c r="Q67" s="33"/>
       <c r="R67" s="36"/>
       <c r="S67" s="37" t="s">
-        <v>869</v>
+        <v>917</v>
       </c>
       <c r="T67" s="38" t="s">
         <v>104</v>
@@ -10278,13 +10310,13 @@
         <v>45351</v>
       </c>
       <c r="G68" s="35" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H68" s="35" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="I68" s="35" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="J68" s="33" t="s">
         <v>139</v>
@@ -10308,7 +10340,7 @@
       <c r="Q68" s="33"/>
       <c r="R68" s="36"/>
       <c r="S68" s="37" t="s">
-        <v>869</v>
+        <v>918</v>
       </c>
       <c r="T68" s="38" t="s">
         <v>104</v>
@@ -10334,13 +10366,13 @@
         <v>45351</v>
       </c>
       <c r="G69" s="35" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H69" s="35" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="I69" s="35" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="J69" s="33" t="s">
         <v>139</v>
@@ -10364,7 +10396,7 @@
       <c r="Q69" s="33"/>
       <c r="R69" s="36"/>
       <c r="S69" s="37" t="s">
-        <v>869</v>
+        <v>919</v>
       </c>
       <c r="T69" s="38" t="s">
         <v>104</v>
@@ -14746,7 +14778,7 @@
         <v>848</v>
       </c>
       <c r="K198" s="25" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="L198" s="25"/>
       <c r="M198" s="25"/>
@@ -20762,13 +20794,13 @@
         <v>45351</v>
       </c>
       <c r="G375" s="34" t="s">
+        <v>870</v>
+      </c>
+      <c r="H375" s="34" t="s">
+        <v>871</v>
+      </c>
+      <c r="I375" s="34" t="s">
         <v>872</v>
-      </c>
-      <c r="H375" s="34" t="s">
-        <v>873</v>
-      </c>
-      <c r="I375" s="34" t="s">
-        <v>874</v>
       </c>
       <c r="J375" s="33" t="s">
         <v>139</v>
@@ -21048,7 +21080,7 @@
         <v>848</v>
       </c>
       <c r="K383" s="25" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="L383" s="25"/>
       <c r="M383" s="25"/>

--- a/GATEWAY/S1#111MEDARCHIVER/MEDARCHIVER/MEDLIS_FSE2.0/1.0.0.0/accreditamento-checklist.xlsx
+++ b/GATEWAY/S1#111MEDARCHIVER/MEDARCHIVER/MEDLIS_FSE2.0/1.0.0.0/accreditamento-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzamparo\Documents\FSE 2.0\it-fse-accreditamento\GATEWAY\S1#111MEDARCHIVER\MEDARCHIVER\MEDLIS_FSE2.0\1.0.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05826B6-F138-4F8B-ACB6-3BF1ECE9ACC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED9CCBC-30C2-4478-89A3-E454D3CD63D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="922">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4587,9 +4587,6 @@
     <t>Il campo purpose_of_use non è valorizzato</t>
   </si>
   <si>
-    <t>Trattandosi di un errore che non può essere gestito dall'utente, l'applicazione mostra un messaggio di errore di autenticazione e l'errore verrà poi gestito in back-office. L'errore reale restituito dalla chiamata di validazione può o meno essere mostrato all'utente a seconda della configurazione del sistema.</t>
-  </si>
-  <si>
     <t>2024-02-22T15:49:42Z</t>
   </si>
   <si>
@@ -4811,6 +4808,12 @@
   </si>
   <si>
     <t>Per eseguire il test è stato volontariamente modificato il campo action_id, cosa non possibile da parte dell'utente finale.</t>
+  </si>
+  <si>
+    <t>Trattandosi di un errore che non può essere gestito dall'utente, l'applicazione visualizza un messaggio di errore di validazione e l'errore verrà notificato all'amministratore di sistema per la sua gestione. Per effettuare nuovamente l'invio dopo la correzione dell'errore, l'utente dispone di una lista di documenti da riprocessare manualmente. L'errore restituito dalla chiamata di validazione può o meno essere mostrato all'utente o sostituito con un errore parlante a seconda della configurazione richiesta dal cliente.</t>
+  </si>
+  <si>
+    <t>Trattandosi di un errore che non può essere gestito dall'utente, l'applicazione visualizza un messaggio di errore di validazione e l'errore verrà notificato all'amministratore di sistema per la sua gestione (il quale può coinvolgere un utente con permessi di configurazione). Per effettuare nuovamente l'invio dopo la correzione dell'errore, l'utente dispone di una lista di documenti da riprocessare manualmente. L'errore restituito dalla chiamata di validazione può o meno essere mostrato all'utente o sostituito con un errore parlante a seconda della configurazione richiesta dal cliente.</t>
   </si>
 </sst>
 </file>
@@ -7790,7 +7793,7 @@
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="48" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D2" s="49"/>
       <c r="F2" s="12"/>
@@ -7815,7 +7818,7 @@
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="43" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D3" s="42"/>
       <c r="F3" s="12"/>
@@ -7838,7 +7841,7 @@
       <c r="A4" s="52"/>
       <c r="B4" s="53"/>
       <c r="C4" s="43" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D4" s="42"/>
       <c r="E4" s="4"/>
@@ -7862,7 +7865,7 @@
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="43" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D5" s="42"/>
       <c r="F5" s="12"/>
@@ -8020,13 +8023,13 @@
         <v>45351</v>
       </c>
       <c r="G10" s="34" t="s">
+        <v>872</v>
+      </c>
+      <c r="H10" s="34" t="s">
         <v>873</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="I10" s="34" t="s">
         <v>874</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>875</v>
       </c>
       <c r="J10" s="33" t="s">
         <v>139</v>
@@ -8064,13 +8067,13 @@
         <v>45351</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H11" s="34" t="s">
+        <v>875</v>
+      </c>
+      <c r="I11" s="34" t="s">
         <v>876</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>877</v>
       </c>
       <c r="J11" s="33" t="s">
         <v>139</v>
@@ -8108,13 +8111,13 @@
         <v>45351</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H12" s="34" t="s">
+        <v>877</v>
+      </c>
+      <c r="I12" s="34" t="s">
         <v>878</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>879</v>
       </c>
       <c r="J12" s="33" t="s">
         <v>139</v>
@@ -8152,13 +8155,13 @@
         <v>45351</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H13" s="34" t="s">
+        <v>879</v>
+      </c>
+      <c r="I13" s="34" t="s">
         <v>880</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>881</v>
       </c>
       <c r="J13" s="33" t="s">
         <v>139</v>
@@ -8196,13 +8199,13 @@
         <v>45351</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H14" s="34" t="s">
+        <v>881</v>
+      </c>
+      <c r="I14" s="34" t="s">
         <v>882</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>883</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>139</v>
@@ -8945,12 +8948,12 @@
         <v>139</v>
       </c>
       <c r="P35" s="33" t="s">
-        <v>853</v>
+        <v>920</v>
       </c>
       <c r="Q35" s="33"/>
       <c r="R35" s="36"/>
       <c r="S35" s="37" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="T35" s="38" t="s">
         <v>104</v>
@@ -9214,10 +9217,10 @@
         <v>45344</v>
       </c>
       <c r="G43" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="H43" s="35" t="s">
         <v>854</v>
-      </c>
-      <c r="H43" s="35" t="s">
-        <v>855</v>
       </c>
       <c r="I43" s="33" t="s">
         <v>851</v>
@@ -9233,18 +9236,18 @@
         <v>139</v>
       </c>
       <c r="N43" s="33" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="O43" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P43" s="33" t="s">
-        <v>853</v>
+        <v>920</v>
       </c>
       <c r="Q43" s="33"/>
       <c r="R43" s="36"/>
       <c r="S43" s="37" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="T43" s="38" t="s">
         <v>104</v>
@@ -9523,7 +9526,7 @@
         <v>139</v>
       </c>
       <c r="P51" s="33" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="Q51" s="33"/>
       <c r="R51" s="36" t="s">
@@ -9806,13 +9809,13 @@
         <v>45351</v>
       </c>
       <c r="G59" s="35" t="s">
+        <v>887</v>
+      </c>
+      <c r="H59" s="35" t="s">
         <v>888</v>
       </c>
-      <c r="H59" s="35" t="s">
+      <c r="I59" s="35" t="s">
         <v>889</v>
-      </c>
-      <c r="I59" s="35" t="s">
-        <v>890</v>
       </c>
       <c r="J59" s="33" t="s">
         <v>139</v>
@@ -9825,18 +9828,18 @@
         <v>139</v>
       </c>
       <c r="N59" s="33" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="O59" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P59" s="33" t="s">
-        <v>853</v>
+        <v>920</v>
       </c>
       <c r="Q59" s="33"/>
       <c r="R59" s="36"/>
       <c r="S59" s="37" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="T59" s="38" t="s">
         <v>104</v>
@@ -9862,13 +9865,13 @@
         <v>45351</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H60" s="35" t="s">
+        <v>890</v>
+      </c>
+      <c r="I60" s="33" t="s">
         <v>891</v>
-      </c>
-      <c r="I60" s="33" t="s">
-        <v>892</v>
       </c>
       <c r="J60" s="33" t="s">
         <v>139</v>
@@ -9881,18 +9884,18 @@
         <v>139</v>
       </c>
       <c r="N60" s="33" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="O60" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P60" s="33" t="s">
-        <v>853</v>
+        <v>920</v>
       </c>
       <c r="Q60" s="33"/>
       <c r="R60" s="36"/>
       <c r="S60" s="37" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="T60" s="38" t="s">
         <v>104</v>
@@ -9918,13 +9921,13 @@
         <v>45351</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H61" s="35" t="s">
+        <v>892</v>
+      </c>
+      <c r="I61" s="35" t="s">
         <v>893</v>
-      </c>
-      <c r="I61" s="35" t="s">
-        <v>894</v>
       </c>
       <c r="J61" s="33" t="s">
         <v>139</v>
@@ -9937,18 +9940,18 @@
         <v>139</v>
       </c>
       <c r="N61" s="33" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="O61" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P61" s="33" t="s">
-        <v>853</v>
+        <v>920</v>
       </c>
       <c r="Q61" s="33"/>
       <c r="R61" s="36"/>
       <c r="S61" s="37" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="T61" s="38" t="s">
         <v>104</v>
@@ -9974,13 +9977,13 @@
         <v>45351</v>
       </c>
       <c r="G62" s="35" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H62" s="35" t="s">
+        <v>894</v>
+      </c>
+      <c r="I62" s="33" t="s">
         <v>895</v>
-      </c>
-      <c r="I62" s="33" t="s">
-        <v>896</v>
       </c>
       <c r="J62" s="33" t="s">
         <v>139</v>
@@ -9993,18 +9996,18 @@
         <v>139</v>
       </c>
       <c r="N62" s="33" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="O62" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P62" s="33" t="s">
-        <v>853</v>
+        <v>920</v>
       </c>
       <c r="Q62" s="33"/>
       <c r="R62" s="36"/>
       <c r="S62" s="37" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T62" s="38" t="s">
         <v>104</v>
@@ -10030,13 +10033,13 @@
         <v>45351</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H63" s="35" t="s">
+        <v>896</v>
+      </c>
+      <c r="I63" s="35" t="s">
         <v>897</v>
-      </c>
-      <c r="I63" s="35" t="s">
-        <v>898</v>
       </c>
       <c r="J63" s="33" t="s">
         <v>139</v>
@@ -10049,18 +10052,18 @@
         <v>139</v>
       </c>
       <c r="N63" s="33" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="O63" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P63" s="33" t="s">
-        <v>853</v>
+        <v>920</v>
       </c>
       <c r="Q63" s="33"/>
       <c r="R63" s="36"/>
       <c r="S63" s="37" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T63" s="38" t="s">
         <v>104</v>
@@ -10086,13 +10089,13 @@
         <v>45351</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H64" s="35" t="s">
+        <v>898</v>
+      </c>
+      <c r="I64" s="33" t="s">
         <v>899</v>
-      </c>
-      <c r="I64" s="33" t="s">
-        <v>900</v>
       </c>
       <c r="J64" s="33" t="s">
         <v>139</v>
@@ -10105,18 +10108,18 @@
         <v>139</v>
       </c>
       <c r="N64" s="33" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O64" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P64" s="33" t="s">
-        <v>853</v>
+        <v>920</v>
       </c>
       <c r="Q64" s="33"/>
       <c r="R64" s="36"/>
       <c r="S64" s="37" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="T64" s="38" t="s">
         <v>104</v>
@@ -10142,13 +10145,13 @@
         <v>45351</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H65" s="35" t="s">
+        <v>900</v>
+      </c>
+      <c r="I65" s="35" t="s">
         <v>901</v>
-      </c>
-      <c r="I65" s="35" t="s">
-        <v>902</v>
       </c>
       <c r="J65" s="33" t="s">
         <v>139</v>
@@ -10161,18 +10164,18 @@
         <v>139</v>
       </c>
       <c r="N65" s="33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="O65" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P65" s="33" t="s">
-        <v>853</v>
+        <v>920</v>
       </c>
       <c r="Q65" s="33"/>
       <c r="R65" s="36"/>
       <c r="S65" s="37" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="T65" s="38" t="s">
         <v>104</v>
@@ -10198,13 +10201,13 @@
         <v>45351</v>
       </c>
       <c r="G66" s="35" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H66" s="35" t="s">
+        <v>902</v>
+      </c>
+      <c r="I66" s="35" t="s">
         <v>903</v>
-      </c>
-      <c r="I66" s="35" t="s">
-        <v>904</v>
       </c>
       <c r="J66" s="33" t="s">
         <v>139</v>
@@ -10217,18 +10220,18 @@
         <v>139</v>
       </c>
       <c r="N66" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="O66" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P66" s="33" t="s">
-        <v>853</v>
+        <v>920</v>
       </c>
       <c r="Q66" s="33"/>
       <c r="R66" s="36"/>
       <c r="S66" s="37" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="T66" s="38" t="s">
         <v>104</v>
@@ -10254,13 +10257,13 @@
         <v>45351</v>
       </c>
       <c r="G67" s="35" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H67" s="35" t="s">
+        <v>904</v>
+      </c>
+      <c r="I67" s="33" t="s">
         <v>905</v>
-      </c>
-      <c r="I67" s="33" t="s">
-        <v>906</v>
       </c>
       <c r="J67" s="33" t="s">
         <v>139</v>
@@ -10273,18 +10276,18 @@
         <v>139</v>
       </c>
       <c r="N67" s="33" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="O67" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P67" s="33" t="s">
-        <v>853</v>
+        <v>921</v>
       </c>
       <c r="Q67" s="33"/>
       <c r="R67" s="36"/>
       <c r="S67" s="37" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="T67" s="38" t="s">
         <v>104</v>
@@ -10310,13 +10313,13 @@
         <v>45351</v>
       </c>
       <c r="G68" s="35" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H68" s="35" t="s">
+        <v>906</v>
+      </c>
+      <c r="I68" s="35" t="s">
         <v>907</v>
-      </c>
-      <c r="I68" s="35" t="s">
-        <v>908</v>
       </c>
       <c r="J68" s="33" t="s">
         <v>139</v>
@@ -10329,18 +10332,18 @@
         <v>139</v>
       </c>
       <c r="N68" s="33" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="O68" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P68" s="33" t="s">
-        <v>853</v>
+        <v>920</v>
       </c>
       <c r="Q68" s="33"/>
       <c r="R68" s="36"/>
       <c r="S68" s="37" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="T68" s="38" t="s">
         <v>104</v>
@@ -10366,13 +10369,13 @@
         <v>45351</v>
       </c>
       <c r="G69" s="35" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H69" s="35" t="s">
+        <v>908</v>
+      </c>
+      <c r="I69" s="35" t="s">
         <v>909</v>
-      </c>
-      <c r="I69" s="35" t="s">
-        <v>910</v>
       </c>
       <c r="J69" s="33" t="s">
         <v>139</v>
@@ -10385,18 +10388,18 @@
         <v>139</v>
       </c>
       <c r="N69" s="33" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="O69" s="33" t="s">
         <v>139</v>
       </c>
       <c r="P69" s="33" t="s">
-        <v>853</v>
+        <v>920</v>
       </c>
       <c r="Q69" s="33"/>
       <c r="R69" s="36"/>
       <c r="S69" s="37" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="T69" s="38" t="s">
         <v>104</v>
@@ -14778,7 +14781,7 @@
         <v>848</v>
       </c>
       <c r="K198" s="25" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="L198" s="25"/>
       <c r="M198" s="25"/>
@@ -20794,13 +20797,13 @@
         <v>45351</v>
       </c>
       <c r="G375" s="34" t="s">
+        <v>869</v>
+      </c>
+      <c r="H375" s="34" t="s">
         <v>870</v>
       </c>
-      <c r="H375" s="34" t="s">
+      <c r="I375" s="34" t="s">
         <v>871</v>
-      </c>
-      <c r="I375" s="34" t="s">
-        <v>872</v>
       </c>
       <c r="J375" s="33" t="s">
         <v>139</v>
@@ -21080,7 +21083,7 @@
         <v>848</v>
       </c>
       <c r="K383" s="25" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="L383" s="25"/>
       <c r="M383" s="25"/>
